--- a/SubwayData/Excel/7호선 역간 거리 정보.xlsx
+++ b/SubwayData/Excel/7호선 역간 거리 정보.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isang-yun/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isang-yun/WebstormProjects/FreshRoute_BE/SubwayData/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A295D585-378E-8044-B505-A4B0F8BAEE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9760AA-4887-5742-AB90-BB5BD8D736D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="500" windowWidth="27900" windowHeight="16940" xr2:uid="{B87C8912-2817-1B4D-BD86-C255E0BC3FB7}"/>
   </bookViews>
@@ -78,9 +78,6 @@
     <t>하계</t>
   </si>
   <si>
-    <t>공릉(서울과학기술대)</t>
-  </si>
-  <si>
     <t>태릉입구</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>중화</t>
   </si>
   <si>
-    <t>상봉(시외버스터미널)</t>
-  </si>
-  <si>
     <t>면목</t>
   </si>
   <si>
@@ -103,12 +97,6 @@
   </si>
   <si>
     <t>중곡</t>
-  </si>
-  <si>
-    <t>군자(능동)</t>
-  </si>
-  <si>
-    <t>어린이대공원(세종대)</t>
   </si>
   <si>
     <t>건대입구</t>
@@ -145,9 +133,6 @@
     <t>남성</t>
   </si>
   <si>
-    <t>숭실대입구(살피재)</t>
-  </si>
-  <si>
     <t>상도</t>
   </si>
   <si>
@@ -163,9 +148,6 @@
     <t>신풍</t>
   </si>
   <si>
-    <t>대림(구로구청)</t>
-  </si>
-  <si>
     <t>남구로</t>
   </si>
   <si>
@@ -181,9 +163,6 @@
     <t>천왕</t>
   </si>
   <si>
-    <t>온수(성공회대입구)</t>
-  </si>
-  <si>
     <t>까치울</t>
   </si>
   <si>
@@ -214,7 +193,36 @@
     <t>산곡</t>
   </si>
   <si>
-    <t>석남(거북시장)</t>
+    <t>공릉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상봉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>군자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린이대공원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숭실대입구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>온수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>석남</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -629,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0302C0E-33C6-794C-9314-96183087F235}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -755,7 +763,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D9" s="3">
         <v>1.3</v>
@@ -769,7 +777,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="3">
         <v>0.8</v>
@@ -783,7 +791,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3">
         <v>0.9</v>
@@ -797,7 +805,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="3">
         <v>0.9</v>
@@ -811,7 +819,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
@@ -825,7 +833,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D14" s="3">
         <v>0.8</v>
@@ -839,7 +847,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15" s="3">
         <v>0.9</v>
@@ -853,7 +861,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" s="3">
         <v>0.8</v>
@@ -867,7 +875,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17" s="3">
         <v>0.9</v>
@@ -881,7 +889,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D18" s="3">
         <v>1.1000000000000001</v>
@@ -895,7 +903,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D19" s="3">
         <v>1.1000000000000001</v>
@@ -909,7 +917,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D20" s="3">
         <v>0.8</v>
@@ -923,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -937,7 +945,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D22" s="3">
         <v>2</v>
@@ -951,7 +959,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D23" s="3">
         <v>1.1000000000000001</v>
@@ -965,7 +973,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D24" s="3">
         <v>0.9</v>
@@ -979,7 +987,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -993,7 +1001,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D26" s="3">
         <v>0.9</v>
@@ -1007,7 +1015,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D27" s="3">
         <v>0.9</v>
@@ -1021,7 +1029,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D28" s="3">
         <v>2.2000000000000002</v>
@@ -1035,7 +1043,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -1049,7 +1057,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -1063,7 +1071,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D31" s="3">
         <v>2</v>
@@ -1077,7 +1085,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D32" s="3">
         <v>0.9</v>
@@ -1091,7 +1099,7 @@
         <v>4</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D33" s="3">
         <v>0.9</v>
@@ -1105,7 +1113,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D34" s="3">
         <v>1.2</v>
@@ -1119,7 +1127,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D35" s="3">
         <v>0.8</v>
@@ -1133,7 +1141,7 @@
         <v>4</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D36" s="3">
         <v>0.9</v>
@@ -1147,7 +1155,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D37" s="3">
         <v>1.4</v>
@@ -1161,7 +1169,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D38" s="3">
         <v>1.1000000000000001</v>
@@ -1175,7 +1183,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D39" s="3">
         <v>0.8</v>
@@ -1189,7 +1197,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D40" s="3">
         <v>1.4</v>
@@ -1203,7 +1211,7 @@
         <v>4</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D41" s="3">
         <v>1.3</v>
@@ -1217,7 +1225,7 @@
         <v>4</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D42" s="3">
         <v>1.7</v>
@@ -1231,7 +1239,7 @@
         <v>4</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D43" s="3">
         <v>1.5</v>
@@ -1245,7 +1253,7 @@
         <v>4</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D44" s="3">
         <v>2.2000000000000002</v>
@@ -1259,7 +1267,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D45" s="3">
         <v>1.2</v>
@@ -1273,7 +1281,7 @@
         <v>4</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D46" s="3">
         <v>0.8</v>
@@ -1287,7 +1295,7 @@
         <v>4</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D47" s="3">
         <v>1</v>
@@ -1301,7 +1309,7 @@
         <v>4</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D48" s="3">
         <v>1.1000000000000001</v>
@@ -1315,7 +1323,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D49" s="3">
         <v>0.9</v>
@@ -1329,7 +1337,7 @@
         <v>4</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D50" s="3">
         <v>1.1000000000000001</v>
@@ -1343,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D51" s="3">
         <v>0.9</v>
@@ -1357,7 +1365,7 @@
         <v>4</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D52" s="3">
         <v>0.9</v>
@@ -1371,7 +1379,7 @@
         <v>4</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D53" s="3">
         <v>1.6</v>
